--- a/JupyterNotebooks/AveragedIntensites/GossA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossA-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1069,7 @@
         <v>0.9944007598602194</v>
       </c>
       <c r="D13">
-        <v>0.9943698965328299</v>
+        <v>0.9943698965328298</v>
       </c>
       <c r="E13">
         <v>0.9946035920634615</v>
@@ -1081,7 +1081,7 @@
         <v>0.9944007598602194</v>
       </c>
       <c r="H13">
-        <v>0.9943698965328299</v>
+        <v>0.9943698965328298</v>
       </c>
       <c r="I13">
         <v>0.9938804113612801</v>
@@ -1093,13 +1093,13 @@
         <v>0.9940530526952971</v>
       </c>
       <c r="L13">
-        <v>0.9930084784487485</v>
+        <v>0.9930084784487491</v>
       </c>
       <c r="M13">
         <v>0.9943838929195346</v>
       </c>
       <c r="N13">
-        <v>0.9944867442981458</v>
+        <v>0.9944867442981457</v>
       </c>
       <c r="O13">
         <v>0.9942965515247876</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9972571109205977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.086662413002611</v>
+      </c>
+      <c r="D16">
+        <v>0.9491496470760641</v>
+      </c>
+      <c r="E16">
+        <v>0.9898537016774713</v>
+      </c>
+      <c r="F16">
+        <v>0.9725266603351137</v>
+      </c>
+      <c r="G16">
+        <v>1.086662413002611</v>
+      </c>
+      <c r="H16">
+        <v>0.9491496470760641</v>
+      </c>
+      <c r="I16">
+        <v>1.019375589268239</v>
+      </c>
+      <c r="J16">
+        <v>0.9605942201170385</v>
+      </c>
+      <c r="K16">
+        <v>1.018040081265707</v>
+      </c>
+      <c r="L16">
+        <v>0.9504567340761417</v>
+      </c>
+      <c r="M16">
+        <v>1.086662413002611</v>
+      </c>
+      <c r="N16">
+        <v>0.9695016743767677</v>
+      </c>
+      <c r="O16">
+        <v>0.999548105522815</v>
+      </c>
+      <c r="P16">
+        <v>0.9933323808522984</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.086662413002611</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW25.xlsx
@@ -1072,7 +1072,7 @@
         <v>0.9944007598602194</v>
       </c>
       <c r="D13">
-        <v>0.9943698965328298</v>
+        <v>0.9943698965328299</v>
       </c>
       <c r="E13">
         <v>0.9946035920634615</v>
@@ -1084,7 +1084,7 @@
         <v>0.9944007598602194</v>
       </c>
       <c r="H13">
-        <v>0.9943698965328298</v>
+        <v>0.9943698965328299</v>
       </c>
       <c r="I13">
         <v>0.9938804113612801</v>
@@ -1096,13 +1096,13 @@
         <v>0.9940530526952971</v>
       </c>
       <c r="L13">
-        <v>0.9930084784487491</v>
+        <v>0.9930084784487485</v>
       </c>
       <c r="M13">
         <v>0.9943838929195346</v>
       </c>
       <c r="N13">
-        <v>0.9944867442981457</v>
+        <v>0.9944867442981458</v>
       </c>
       <c r="O13">
         <v>0.9942965515247876</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7451279999999989</v>
+        <v>1.086662413002611</v>
       </c>
       <c r="D10">
-        <v>1.105512000000001</v>
+        <v>0.9491496470760641</v>
       </c>
       <c r="E10">
-        <v>1.107011999999999</v>
+        <v>0.9898537016774713</v>
       </c>
       <c r="F10">
-        <v>0.9982560000000004</v>
+        <v>0.9725266603351137</v>
       </c>
       <c r="G10">
-        <v>0.7451279999999989</v>
+        <v>1.086662413002611</v>
       </c>
       <c r="H10">
-        <v>1.105512000000001</v>
+        <v>0.9491496470760641</v>
       </c>
       <c r="I10">
-        <v>0.9840999999999996</v>
+        <v>1.019375589268239</v>
       </c>
       <c r="J10">
-        <v>1.077896</v>
+        <v>0.9605942201170385</v>
       </c>
       <c r="K10">
-        <v>0.9013039999999988</v>
+        <v>1.018040081265707</v>
       </c>
       <c r="L10">
-        <v>1.086659999999999</v>
+        <v>0.9504567340761417</v>
       </c>
       <c r="M10">
-        <v>0.7451279999999989</v>
+        <v>1.086662413002611</v>
       </c>
       <c r="N10">
-        <v>1.106262</v>
+        <v>0.9695016743767677</v>
       </c>
       <c r="O10">
-        <v>0.9889769999999998</v>
+        <v>0.999548105522815</v>
       </c>
       <c r="P10">
-        <v>1.000733499999999</v>
+        <v>0.9933323808522984</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.96</v>
+        <v>0.5875720723398838</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>1.534142505545308</v>
       </c>
       <c r="E11">
-        <v>1.36</v>
+        <v>0.905430746801493</v>
       </c>
       <c r="F11">
-        <v>0.8711000000000011</v>
+        <v>1.097881806962828</v>
       </c>
       <c r="G11">
-        <v>0.96</v>
+        <v>0.5875720723398838</v>
       </c>
       <c r="H11">
-        <v>0.53</v>
+        <v>1.534142505545308</v>
       </c>
       <c r="I11">
-        <v>1.220550000000002</v>
+        <v>0.8073493666100912</v>
       </c>
       <c r="J11">
-        <v>1.03</v>
+        <v>1.117987974520836</v>
       </c>
       <c r="K11">
-        <v>0.99</v>
+        <v>0.8391002428608455</v>
       </c>
       <c r="L11">
-        <v>0.7298624999999997</v>
+        <v>1.342545656118851</v>
       </c>
       <c r="M11">
-        <v>0.96</v>
+        <v>0.5875720723398838</v>
       </c>
       <c r="N11">
-        <v>0.9450000000000001</v>
+        <v>1.219786626173401</v>
       </c>
       <c r="O11">
-        <v>0.9302750000000003</v>
+        <v>1.031256782912378</v>
       </c>
       <c r="P11">
-        <v>0.9614390625000004</v>
+        <v>1.029001296470017</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9778469556223971</v>
+        <v>0.586606018181125</v>
       </c>
       <c r="D12">
-        <v>0.7241934102528013</v>
+        <v>1.536670656902683</v>
       </c>
       <c r="E12">
-        <v>1.204740374527997</v>
+        <v>0.9042561087401912</v>
       </c>
       <c r="F12">
-        <v>0.9240014787584009</v>
+        <v>1.098484798449754</v>
       </c>
       <c r="G12">
-        <v>0.9778469556223971</v>
+        <v>0.586606018181125</v>
       </c>
       <c r="H12">
-        <v>0.7241934102528013</v>
+        <v>1.536670656902683</v>
       </c>
       <c r="I12">
-        <v>1.123437328588797</v>
+        <v>0.8062069664315179</v>
       </c>
       <c r="J12">
-        <v>1.013053178777598</v>
+        <v>1.118218474851072</v>
       </c>
       <c r="K12">
-        <v>0.9929532376064024</v>
+        <v>0.8386816357067002</v>
       </c>
       <c r="L12">
-        <v>0.8407857504256011</v>
+        <v>1.344255264380744</v>
       </c>
       <c r="M12">
-        <v>0.9778438189055974</v>
+        <v>0.586606018181125</v>
       </c>
       <c r="N12">
-        <v>0.9644668923903992</v>
+        <v>1.220463382821437</v>
       </c>
       <c r="O12">
-        <v>0.957695554790399</v>
+        <v>1.031504395568438</v>
       </c>
       <c r="P12">
-        <v>0.9751264643199993</v>
+        <v>1.029172490455474</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9944007598602194</v>
+        <v>0.5873699306972402</v>
       </c>
       <c r="D13">
-        <v>0.9943698965328299</v>
+        <v>1.534528374753347</v>
       </c>
       <c r="E13">
-        <v>0.9946035920634615</v>
+        <v>0.9052205473826705</v>
       </c>
       <c r="F13">
-        <v>0.9938119576426394</v>
+        <v>1.098030750560502</v>
       </c>
       <c r="G13">
-        <v>0.9944007598602194</v>
+        <v>0.5873699306972402</v>
       </c>
       <c r="H13">
-        <v>0.9943698965328299</v>
+        <v>1.534528374753347</v>
       </c>
       <c r="I13">
-        <v>0.9938804113612801</v>
+        <v>0.8070939819007268</v>
       </c>
       <c r="J13">
-        <v>0.9951694324111999</v>
+        <v>1.11803308165379</v>
       </c>
       <c r="K13">
-        <v>0.9940530526952971</v>
+        <v>0.839023427125616</v>
       </c>
       <c r="L13">
-        <v>0.9930084784487485</v>
+        <v>1.342900700843288</v>
       </c>
       <c r="M13">
-        <v>0.9943838929195346</v>
+        <v>0.5873699306972402</v>
       </c>
       <c r="N13">
-        <v>0.9944867442981458</v>
+        <v>1.219874461068009</v>
       </c>
       <c r="O13">
-        <v>0.9942965515247876</v>
+        <v>1.03128740084844</v>
       </c>
       <c r="P13">
-        <v>0.9941621976269595</v>
+        <v>1.029025099364647</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9916620388927332</v>
+        <v>0.7451279999999989</v>
       </c>
       <c r="D14">
-        <v>1.0121896884806</v>
+        <v>1.105512000000001</v>
       </c>
       <c r="E14">
-        <v>0.9871724681607575</v>
+        <v>1.107011999999999</v>
       </c>
       <c r="F14">
-        <v>0.9955899502848872</v>
+        <v>0.9982560000000004</v>
       </c>
       <c r="G14">
-        <v>0.9916620388927332</v>
+        <v>0.7451279999999989</v>
       </c>
       <c r="H14">
-        <v>1.0121896884806</v>
+        <v>1.105512000000001</v>
       </c>
       <c r="I14">
-        <v>0.9897174245772615</v>
+        <v>0.9840999999999996</v>
       </c>
       <c r="J14">
-        <v>0.993945994030054</v>
+        <v>1.077896</v>
       </c>
       <c r="K14">
-        <v>0.9930499070793373</v>
+        <v>0.9013039999999988</v>
       </c>
       <c r="L14">
-        <v>1.003020687710952</v>
+        <v>1.086659999999999</v>
       </c>
       <c r="M14">
-        <v>0.9916620388927332</v>
+        <v>0.7451279999999989</v>
       </c>
       <c r="N14">
-        <v>0.9996810783206789</v>
+        <v>1.106262</v>
       </c>
       <c r="O14">
-        <v>0.9966535364547444</v>
+        <v>0.9889769999999998</v>
       </c>
       <c r="P14">
-        <v>0.9957935199020728</v>
+        <v>1.000733499999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9751891190894817</v>
+        <v>0.96</v>
       </c>
       <c r="D15">
-        <v>1.035361777999287</v>
+        <v>0.53</v>
       </c>
       <c r="E15">
-        <v>0.9828187211147899</v>
+        <v>1.36</v>
       </c>
       <c r="F15">
-        <v>1.002396193712235</v>
+        <v>0.8711000000000011</v>
       </c>
       <c r="G15">
-        <v>0.9751891190894817</v>
+        <v>0.96</v>
       </c>
       <c r="H15">
-        <v>1.035361777999287</v>
+        <v>0.53</v>
       </c>
       <c r="I15">
-        <v>0.9777807969986261</v>
+        <v>1.220550000000002</v>
       </c>
       <c r="J15">
-        <v>0.9984958748600403</v>
+        <v>1.03</v>
       </c>
       <c r="K15">
-        <v>0.9859507265059233</v>
+        <v>0.99</v>
       </c>
       <c r="L15">
-        <v>1.020063677084398</v>
+        <v>0.7298624999999997</v>
       </c>
       <c r="M15">
-        <v>0.9751552076613681</v>
+        <v>0.96</v>
       </c>
       <c r="N15">
-        <v>1.009090249557038</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="O15">
-        <v>0.9989414529789484</v>
+        <v>0.9302750000000003</v>
       </c>
       <c r="P15">
-        <v>0.9972571109205977</v>
+        <v>0.9614390625000004</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.086662413002611</v>
+        <v>0.9778469556223971</v>
       </c>
       <c r="D16">
-        <v>0.9491496470760641</v>
+        <v>0.7241934102528013</v>
       </c>
       <c r="E16">
-        <v>0.9898537016774713</v>
+        <v>1.204740374527997</v>
       </c>
       <c r="F16">
-        <v>0.9725266603351137</v>
+        <v>0.9240014787584009</v>
       </c>
       <c r="G16">
-        <v>1.086662413002611</v>
+        <v>0.9778469556223971</v>
       </c>
       <c r="H16">
-        <v>0.9491496470760641</v>
+        <v>0.7241934102528013</v>
       </c>
       <c r="I16">
-        <v>1.019375589268239</v>
+        <v>1.123437328588797</v>
       </c>
       <c r="J16">
-        <v>0.9605942201170385</v>
+        <v>1.013053178777598</v>
       </c>
       <c r="K16">
-        <v>1.018040081265707</v>
+        <v>0.9929532376064024</v>
       </c>
       <c r="L16">
-        <v>0.9504567340761417</v>
+        <v>0.8407857504256011</v>
       </c>
       <c r="M16">
-        <v>1.086662413002611</v>
+        <v>0.9778438189055974</v>
       </c>
       <c r="N16">
-        <v>0.9695016743767677</v>
+        <v>0.9644668923903992</v>
       </c>
       <c r="O16">
-        <v>0.999548105522815</v>
+        <v>0.957695554790399</v>
       </c>
       <c r="P16">
-        <v>0.9933323808522984</v>
+        <v>0.9751264643199993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9944007598602194</v>
+      </c>
+      <c r="D17">
+        <v>0.9943698965328298</v>
+      </c>
+      <c r="E17">
+        <v>0.9946035920634615</v>
+      </c>
+      <c r="F17">
+        <v>0.9938119576426394</v>
+      </c>
+      <c r="G17">
+        <v>0.9944007598602194</v>
+      </c>
+      <c r="H17">
+        <v>0.9943698965328298</v>
+      </c>
+      <c r="I17">
+        <v>0.9938804113612801</v>
+      </c>
+      <c r="J17">
+        <v>0.9951694324111999</v>
+      </c>
+      <c r="K17">
+        <v>0.9940530526952971</v>
+      </c>
+      <c r="L17">
+        <v>0.9930084784487491</v>
+      </c>
+      <c r="M17">
+        <v>0.9943838929195346</v>
+      </c>
+      <c r="N17">
+        <v>0.9944867442981457</v>
+      </c>
+      <c r="O17">
+        <v>0.9942965515247876</v>
+      </c>
+      <c r="P17">
+        <v>0.9941621976269595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9916620388927332</v>
+      </c>
+      <c r="D18">
+        <v>1.0121896884806</v>
+      </c>
+      <c r="E18">
+        <v>0.9871724681607575</v>
+      </c>
+      <c r="F18">
+        <v>0.9955899502848872</v>
+      </c>
+      <c r="G18">
+        <v>0.9916620388927332</v>
+      </c>
+      <c r="H18">
+        <v>1.0121896884806</v>
+      </c>
+      <c r="I18">
+        <v>0.9897174245772615</v>
+      </c>
+      <c r="J18">
+        <v>0.993945994030054</v>
+      </c>
+      <c r="K18">
+        <v>0.9930499070793373</v>
+      </c>
+      <c r="L18">
+        <v>1.003020687710952</v>
+      </c>
+      <c r="M18">
+        <v>0.9916620388927332</v>
+      </c>
+      <c r="N18">
+        <v>0.9996810783206789</v>
+      </c>
+      <c r="O18">
+        <v>0.9966535364547444</v>
+      </c>
+      <c r="P18">
+        <v>0.9957935199020728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9751891190894817</v>
+      </c>
+      <c r="D19">
+        <v>1.035361777999287</v>
+      </c>
+      <c r="E19">
+        <v>0.9828187211147899</v>
+      </c>
+      <c r="F19">
+        <v>1.002396193712235</v>
+      </c>
+      <c r="G19">
+        <v>0.9751891190894817</v>
+      </c>
+      <c r="H19">
+        <v>1.035361777999287</v>
+      </c>
+      <c r="I19">
+        <v>0.9777807969986261</v>
+      </c>
+      <c r="J19">
+        <v>0.9984958748600403</v>
+      </c>
+      <c r="K19">
+        <v>0.9859507265059233</v>
+      </c>
+      <c r="L19">
+        <v>1.020063677084398</v>
+      </c>
+      <c r="M19">
+        <v>0.9751552076613681</v>
+      </c>
+      <c r="N19">
+        <v>1.009090249557038</v>
+      </c>
+      <c r="O19">
+        <v>0.9989414529789484</v>
+      </c>
+      <c r="P19">
+        <v>0.9972571109205977</v>
       </c>
     </row>
   </sheetData>
